--- a/data/income_statement/2digits/size/52_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/52_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>52-Warehousing and support activities for transportation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>52-Warehousing and support activities for transportation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>7800967.74956</v>
+        <v>7497856.58359</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>9047689.661739999</v>
+        <v>8586201.206799999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>12814520.65067</v>
+        <v>12343908.61047</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>13768363.37783</v>
+        <v>13237887.84174</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>15831675.08919</v>
+        <v>15010746.43564</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>17999044.10298</v>
+        <v>17737993.68154</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>18637971.48771</v>
+        <v>22091426.60011</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>25646144.9918</v>
+        <v>25235027.08604</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>38609398.19238</v>
+        <v>37537618.98078001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>47132160.18879999</v>
+        <v>45253075.19413</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>64024086.05311999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>61482391.60587</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>65776138.096</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4720470.38498</v>
+        <v>4493729.875130001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5809638.039399999</v>
+        <v>5448318.435649999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>8116340.60123</v>
+        <v>7789188.43384</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>9406085.55075</v>
+        <v>8987512.783850001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10608859.01454</v>
+        <v>10010942.1268</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>12671599.84098</v>
+        <v>12595267.71665</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>12984569.52386</v>
+        <v>15610496.89365</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>19086030.26452</v>
+        <v>18725011.5374</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>29480991.94294</v>
+        <v>28666279.78201</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>34652409.28124</v>
+        <v>33162235.5018</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>48187229.83041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>46144244.82186</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>50664241.938</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2999409.13119</v>
+        <v>2928466.67679</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>3150731.46996</v>
+        <v>3064290.82081</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>4566393.436310001</v>
+        <v>4449018.99635</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4199941.899970001</v>
+        <v>4115187.08134</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>5087400.800100001</v>
+        <v>4876987.9099</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5180726.69998</v>
+        <v>5008996.911780001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>5495758.350059999</v>
+        <v>6330548.637610001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6202287.490719999</v>
+        <v>6163192.75842</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>8708415.56758</v>
+        <v>8467753.23184</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>11854518.83926</v>
+        <v>11500320.04753</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>14981535.8186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14523036.63312</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>14201963.099</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>81088.23338999999</v>
+        <v>75660.03167</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>87320.15238</v>
+        <v>73591.95034000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>131786.61313</v>
+        <v>105701.18028</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>162335.92711</v>
+        <v>135187.97655</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>135415.27455</v>
+        <v>122816.39894</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>146717.56202</v>
+        <v>133729.05311</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>157643.61379</v>
+        <v>150381.06885</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>357827.23656</v>
+        <v>346822.79022</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>419990.68186</v>
+        <v>403585.96693</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>625232.0682999999</v>
+        <v>590519.6448</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>855320.40411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>815110.1508899999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>909933.059</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>201581.27181</v>
+        <v>199047.19216</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>231527.78351</v>
+        <v>228182.11652</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>311049.37475</v>
+        <v>307471.48841</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>316547.18032</v>
+        <v>312067.42691</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>495516.10335</v>
+        <v>492579.0375600001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>474780.44713</v>
+        <v>485951.31167</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>284419.66045</v>
+        <v>617168.94465</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>772108.9956899999</v>
+        <v>766371.54935</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1072917.87287</v>
+        <v>1020996.88154</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1488091.73359</v>
+        <v>1349189.37218</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2391970.95943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2232236.94158</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2027863.74</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>30639.89389</v>
+        <v>28834.28306</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>34238.09237</v>
+        <v>32426.43372</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>41660.63119</v>
+        <v>39813.00256</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>47026.53051999999</v>
+        <v>45837.23305999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>189808.74676</v>
+        <v>188202.07003</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>92533.10275000001</v>
+        <v>105983.64044</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>147324.9127</v>
+        <v>152845.73972</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>213720.88486</v>
+        <v>213175.51329</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>285945.18905</v>
+        <v>281595.08964</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>344785.06787</v>
+        <v>329512.37364</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>937904.71508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>918295.42646</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>768070.379</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4888.80356</v>
+        <v>4737.30831</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>10839.95807</v>
+        <v>10501.94672</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>24027.08869</v>
+        <v>23785.71022</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>11753.6463</v>
+        <v>11237.62131</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>13988.04849</v>
+        <v>13392.59529</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>26405.43513</v>
+        <v>26225.69432</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>33664.59624</v>
+        <v>31475.79872</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>71713.73258</v>
+        <v>69987.38655000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>167824.13918</v>
+        <v>121360.76116</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>266463.31059</v>
+        <v>143699.26679</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>313719.75202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>174331.34319</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>411087.432</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>166052.57436</v>
+        <v>165475.60079</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>186449.73307</v>
+        <v>185253.73608</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>245361.65487</v>
+        <v>243872.77563</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>257767.0035</v>
+        <v>254992.57254</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>291719.3081</v>
+        <v>290984.37224</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>355841.90925</v>
+        <v>353741.97691</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>103430.15151</v>
+        <v>432847.40621</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>486674.37825</v>
+        <v>483208.64951</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>619148.54464</v>
+        <v>618041.03074</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>876843.35513</v>
+        <v>875977.73175</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1140346.49233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1139610.17193</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>848705.929</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>7599386.47775</v>
+        <v>7298809.39143</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>8816161.87823</v>
+        <v>8358019.090280001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>12503471.27592</v>
+        <v>12036437.12206</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>13451816.19751</v>
+        <v>12925820.41483</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>15336158.98584</v>
+        <v>14518167.39808</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>17524263.65585</v>
+        <v>17252042.36987</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>18353551.82726</v>
+        <v>21474257.65546</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>24874035.99611</v>
+        <v>24468655.53669</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>37536480.31951</v>
+        <v>36516622.09924</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>45644068.45521</v>
+        <v>43903885.82195</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>61632115.09368999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>59250154.66429</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>63748274.356</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>5089718.56496</v>
+        <v>4894400.94224</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>6066946.11724</v>
+        <v>5737576.651240001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>8458803.78386</v>
+        <v>8085659.101980001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>9209181.96555</v>
+        <v>8861824.947000001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10165965.53343</v>
+        <v>9662170.217370002</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>11143308.88233</v>
+        <v>10914834.01351</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>11898402.20923</v>
+        <v>13376444.32652</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16745410.08469</v>
+        <v>16525005.78292</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>26221818.9191</v>
+        <v>25447935.71456</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>29524876.71254</v>
+        <v>28146284.28822</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>40660086.04879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>38098260.01224</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>48666407.612</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>120004.49096</v>
+        <v>118599.95063</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>117192.09558</v>
+        <v>117187.78391</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>125885.70091</v>
+        <v>124182.91108</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3748.81361</v>
+        <v>570.21696</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2159.53898</v>
+        <v>227.5793</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>407629.38237</v>
+        <v>391946.0730100001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>28148.69899</v>
+        <v>7868.44427</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>245501.16669</v>
+        <v>237367.48321</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>109934.26588</v>
+        <v>109811.48957</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>11767.4212</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>15155.79892</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3641.6715</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>5746.172</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>369497.85959</v>
+        <v>368766.72223</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>333792.35624</v>
+        <v>329396.26884</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>840041.7141900001</v>
+        <v>834943.68319</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>524162.7648</v>
+        <v>512940.46543</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>720325.75752</v>
+        <v>693973.32554</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>248837.44042</v>
+        <v>213717.03645</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>670625.42049</v>
+        <v>646951.2135399999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>612985.13402</v>
+        <v>540944.8872999999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>857421.4991</v>
+        <v>766520.55545</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1004296.39008</v>
+        <v>975373.47739</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>572197.0926</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>569664.1814700001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>961647.74</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>4545703.602519999</v>
+        <v>4353207.989809999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>5535475.47068</v>
+        <v>5211093.260620001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>7481976.43659</v>
+        <v>7116223.56592</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>8656642.087929999</v>
+        <v>8328573.1755</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>9440986.36717</v>
+        <v>8966632.234759999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>10484930.12461</v>
+        <v>10307682.94714</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>11188025.26135</v>
+        <v>12717837.10898</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>15856821.75734</v>
+        <v>15725936.41676</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>25242617.98948</v>
+        <v>24568951.97948</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>28489107.10283</v>
+        <v>27157520.0003</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>39811843.91611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>37519870.84306</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>47394580.593</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>54512.61189</v>
+        <v>53826.27957</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>80486.19474000001</v>
+        <v>79899.33787</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>10899.93217</v>
+        <v>10308.94179</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>24628.29921</v>
+        <v>19741.08911</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2493.86976</v>
+        <v>1337.07777</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1911.93493</v>
+        <v>1487.95691</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>11602.8284</v>
+        <v>3787.55973</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>30102.02664</v>
+        <v>20756.99565</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>11845.16464</v>
+        <v>2651.69006</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>19705.79843</v>
+        <v>1623.38933</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>260889.24116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5083.316210000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>304433.107</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2509667.91279</v>
+        <v>2404408.44919</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2749215.76099</v>
+        <v>2620442.43904</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>4044667.49206</v>
+        <v>3950778.02008</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4242634.23196</v>
+        <v>4063995.46783</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>5170193.452409999</v>
+        <v>4855997.18071</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>6380954.773519999</v>
+        <v>6337208.35636</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>6455149.61803</v>
+        <v>8097813.328939999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>8128625.91142</v>
+        <v>7943649.75377</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>11314661.40041</v>
+        <v>11068686.38468</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>16119191.74267</v>
+        <v>15757601.53373</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>20972029.0449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>21151894.65205</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>15081866.744</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1157116.09396</v>
+        <v>1028849.99811</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1255770.22336</v>
+        <v>1064885.90047</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1551313.86293</v>
+        <v>1340509.85607</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1773485.52518</v>
+        <v>1581469.25192</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1828720.24718</v>
+        <v>1581100.16691</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2211285.84674</v>
+        <v>1864950.07443</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2511709.78171</v>
+        <v>2273567.2293</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3134267.02722</v>
+        <v>2728990.80487</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4445211.03276</v>
+        <v>3843368.64394</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4591048.304839999</v>
+        <v>3940248.239</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5698655.57956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4756380.89802</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5555957.453</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1917.41605</v>
@@ -1592,10 +1578,10 @@
         <v>3875.5184</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>0</v>
+        <v>4334.18045</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4877.25213</v>
+        <v>4411.3183</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>5242.59513</v>
@@ -1606,449 +1592,509 @@
       <c r="M21" s="48" t="n">
         <v>9350.9103</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>16652.49</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>74396.43160000001</v>
+        <v>62278.45536</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>57319.69659000001</v>
+        <v>47675.79652</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>86059.70321000001</v>
+        <v>71515.17998</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>126369.11844</v>
+        <v>113035.67673</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>119381.63171</v>
+        <v>102215.29544</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>86225.09931000001</v>
+        <v>76549.33865999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>104632.25306</v>
+        <v>87289.32801</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>132229.75281</v>
+        <v>111752.19912</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>139588.19371</v>
+        <v>117308.39064</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>139008.10712</v>
+        <v>131201.96856</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>174697.62266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>140346.25741</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>277119.282</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1080802.24631</v>
+        <v>964654.1267</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1196189.6328</v>
+        <v>1014949.20998</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1462333.28286</v>
+        <v>1266073.79923</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1643770.64243</v>
+        <v>1465087.81088</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1705719.04511</v>
+        <v>1475265.30111</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2121185.22903</v>
+        <v>1784525.21737</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2407077.52865</v>
+        <v>2181943.72084</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2997160.02228</v>
+        <v>2612827.28745</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4300380.24392</v>
+        <v>3720817.65817</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4444519.38562</v>
+        <v>3801525.45834</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5514607.046599999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4606683.73031</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5262185.681</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1352551.81883</v>
+        <v>1375558.45108</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1493445.53763</v>
+        <v>1555556.53857</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2493353.62913</v>
+        <v>2610268.16401</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2469148.70678</v>
+        <v>2482526.21591</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3341473.20523</v>
+        <v>3274897.0138</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4169668.92678</v>
+        <v>4472258.281930001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3943439.83632</v>
+        <v>5824246.099640001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4994358.8842</v>
+        <v>5214658.948899999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>6869450.367649999</v>
+        <v>7225317.74074</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>11528143.43783</v>
+        <v>11817353.29473</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>15273373.46534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16395513.75403</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9525909.290999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1474560.24684</v>
+        <v>1141950.32498</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1772583.14658</v>
+        <v>1412914.93486</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2095415.60187</v>
+        <v>1718291.67896</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1796910.39226</v>
+        <v>1370522.58001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2798851.22716</v>
+        <v>2038437.8296</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3590336.01178</v>
+        <v>2283378.45383</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5913207.744719999</v>
+        <v>4964776.32592</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>8273008.06859</v>
+        <v>7265583.99787</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>11482524.17091</v>
+        <v>9665068.31969</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>28952406.96052</v>
+        <v>25772322.53701</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>22152049.32481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>19734150.72174</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>29419340.502</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>18063.05495</v>
+        <v>16269.46673</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>66028.19792000001</v>
+        <v>37467.30021</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>72200.80959</v>
+        <v>38745.71963</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>89300.32124999999</v>
+        <v>58317.23222</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>263354.31454</v>
+        <v>66332.43072999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>245222.85699</v>
+        <v>88751.85312999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>443557.19531</v>
+        <v>140387.12315</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>223619.56912</v>
+        <v>154062.43688</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>168403.62078</v>
+        <v>152070.63357</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>270499.77829</v>
+        <v>256359.20443</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>424581.19281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>228034.58534</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>23796.489</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>57346.18713000001</v>
+        <v>27686.96544</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>70142.30613</v>
+        <v>24058.87853</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>88273.57521000001</v>
+        <v>1095.75008</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>118375.82628</v>
+        <v>519.49102</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>137731.12092</v>
+        <v>766.6276899999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>162195.21554</v>
+        <v>16038.57539</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>319025.7397799999</v>
+        <v>16778.80056</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>357577.49674</v>
+        <v>151569.95843</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>813308.4867299999</v>
+        <v>104548.67775</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>637208.83536</v>
+        <v>90998.11495</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>493318.376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>161250.69864</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>33549.701</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>165021.54973</v>
+        <v>135066.83818</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>182763.78567</v>
+        <v>165502.46096</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>192251.74515</v>
+        <v>160338.8212</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>213741.37416</v>
+        <v>172155.52148</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>239585.28418</v>
+        <v>177650.86025</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>314490.6792000001</v>
+        <v>236707.75112</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>353640.21107</v>
+        <v>300988.84448</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>421211.19725</v>
+        <v>342275.81826</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>603555.36063</v>
+        <v>477110.83545</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1006827.5675</v>
+        <v>842826.55658</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1177638.08312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>909245.29187</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>934721.515</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>5394.12352</v>
+        <v>4381.7311</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>7230.327929999999</v>
+        <v>4282.5419</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>7071.582</v>
+        <v>5793.870599999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>7637.93774</v>
+        <v>7174.24713</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>10531.45989</v>
+        <v>10211.09498</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>12095.33122</v>
+        <v>11656.22276</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>20763.42443</v>
+        <v>20214.03051</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>19048.52461</v>
+        <v>18435.21964</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>28996.7851</v>
+        <v>28882.93979</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>42622.52036</v>
+        <v>41545.56785</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>35673.11265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>34790.16086</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>22776.697</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5405.98243</v>
+        <v>4669.47055</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>6907.32328</v>
+        <v>6256.139990000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>10616.52246</v>
+        <v>7651.23202</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>14002.23451</v>
+        <v>13615.56124</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>26728.71713</v>
+        <v>18530.14277</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>8403.176230000001</v>
+        <v>7421.5978</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>16534.54295</v>
+        <v>9862.864669999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>10619.16495</v>
+        <v>7919.84443</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>27793.90603</v>
+        <v>26853.43478</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>49123.41322</v>
+        <v>48097.72661</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>118011.59601</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>109850.523</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>150668.182</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>81369.15060000001</v>
+        <v>76051.55531</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>49183.73438</v>
+        <v>24832.74166</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>62643.80252</v>
+        <v>62033.4892</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>41487.74026999999</v>
+        <v>36283.00362</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>9927.91145</v>
+        <v>3780.09158</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>8615.090389999999</v>
+        <v>8358.213820000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>941.56304</v>
+        <v>4698.611800000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>68236.02042999999</v>
+        <v>65760.03828000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>93085.45314</v>
+        <v>92398.15826000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>14683.21647</v>
+        <v>13954.31915</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>52391.8164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1258.7946</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1837.913</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>970051.41577</v>
+        <v>804812.58</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1312840.58386</v>
+        <v>1117073.06344</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1545130.28736</v>
+        <v>1355074.85399</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1182750.74002</v>
+        <v>977337.2019600001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1991145.84463</v>
+        <v>1655470.125</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2598652.81299</v>
+        <v>1775235.08133</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4582319.31058</v>
+        <v>4299243.33102</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>6940947.764320001</v>
+        <v>6340181.33926</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>9054838.591010001</v>
+        <v>8130420.31325</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>26462877.35326</v>
+        <v>24080658.30811</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>16371519.83762</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>14910474.47518</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>27219885.21</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1710.19164</v>
+        <v>1708.55104</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>1495.46532</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>568.9751600000001</v>
+        <v>567.96176</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>448.8945900000001</v>
@@ -2060,7 +2106,7 @@
         <v>909.9536400000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>895.10587</v>
+        <v>1022.85983</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>2299.20196</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>15246.30598</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>965.837</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,257 +2164,292 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>748.215</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>170198.59107</v>
+        <v>71303.16662999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>75982.94249000002</v>
+        <v>31937.86325</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>116658.30242</v>
+        <v>86989.98048</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>129165.32344</v>
+        <v>104671.42675</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>118973.92121</v>
+        <v>104823.80339</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>239750.89558</v>
+        <v>138299.20484</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>175530.65169</v>
+        <v>171579.8599</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>229449.12921</v>
+        <v>183080.14073</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>687512.7991800001</v>
+        <v>647754.15853</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>460223.56096</v>
+        <v>389542.02423</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3463669.00422</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3363999.88627</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1030390.743</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>956636.48485</v>
+        <v>843373.0851400001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>975372.3656</v>
+        <v>829591.23824</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1506713.68558</v>
+        <v>1344092.08058</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>908784.86888</v>
+        <v>767510.3593499999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2032154.54297</v>
+        <v>1600896.17298</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2492211.40464</v>
+        <v>1648408.38036</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4393777.70792</v>
+        <v>4159881.62877</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6882310.09816</v>
+        <v>6080772.98404</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>9542985.802879998</v>
+        <v>8595571.64232</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>28740042.33208</v>
+        <v>25726846.26719</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>18812695.22188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>16649823.68218</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>29467335.298</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3970.4996</v>
+        <v>1041.90399</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>53084.75179</v>
+        <v>50247.5429</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>5308.58463</v>
+        <v>2178.60886</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>6337.973819999999</v>
+        <v>3068.62315</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>10210.98151</v>
+        <v>6330.43307</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>15421.27933</v>
+        <v>11540.65416</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>182910.5428</v>
+        <v>15768.02183</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>18958.58979</v>
+        <v>14766.45692</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>97486.82595</v>
+        <v>93548.48875</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>64029.17354</v>
+        <v>59765.69919</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>55031.68018</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>38591.35095</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>42185.675</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>18005.13657</v>
+        <v>15409.55941</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>42095.13971</v>
+        <v>38260.36672</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>24829.22781</v>
+        <v>22193.77307</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>46468.59956</v>
+        <v>45361.96875</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>28268.95833</v>
+        <v>26541.62822</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>53768.36821</v>
+        <v>38877.9414</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>51333.97596</v>
+        <v>42814.78014</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>55279.41987999999</v>
+        <v>42945.83511</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>181356.21642</v>
+        <v>175620.2699</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>162072.69442</v>
+        <v>151496.40911</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>279746.47549</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>267216.98081</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>375507.999</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>43492.77772</v>
+        <v>40439.11835</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>584.2346600000001</v>
+        <v>581.1900000000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>3123.08837</v>
+        <v>2986.42942</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>14384.27326</v>
+        <v>11442.42409</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1047.9893</v>
+        <v>1002.09821</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1090.79512</v>
+        <v>27.21619</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>43623.69088</v>
+        <v>46276.33182</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>837.3575999999999</v>
+        <v>567.87679</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>13010.28762</v>
+        <v>12960.01628</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>10532.51423</v>
+        <v>10214.21307</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>49668.58659000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>7.15792</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>830694.78536</v>
+        <v>735000.7796600001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>827281.9079499999</v>
+        <v>712311.99225</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1406080.42133</v>
+        <v>1288189.40004</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>794607.0133199999</v>
+        <v>665173.1629300001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1950367.19872</v>
+        <v>1529811.80346</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2305477.96616</v>
+        <v>1533076.24052</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4021473.70216</v>
+        <v>3965836.04003</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6674024.59566</v>
+        <v>5894599.629849999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>9062887.6896</v>
+        <v>8138197.998120001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>28232491.8532</v>
+        <v>25239128.94769</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>17893601.99828</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>15829439.24167</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>28592377.554</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>37.07163</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>48.78238</v>
+        <v>47.85701</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>12.29207</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>12.24598</v>
+        <v>9.158799999999999</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>244.72449</v>
@@ -2372,13 +2458,13 @@
         <v>476.23987</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>324.95548</v>
+        <v>396.28004</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>418.44001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1749.68633</v>
+        <v>151.82772</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>402.00932</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>308.72485</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>186.766</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1158.936</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>60436.21397</v>
+        <v>51481.72373000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>52251.50832000001</v>
+        <v>28116.24857</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>67360.07137000001</v>
+        <v>28531.57712</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>46974.76294</v>
+        <v>42455.02163</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>42014.69061999999</v>
+        <v>36965.48553</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>115976.75595</v>
+        <v>64410.08822</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>92293.30026</v>
+        <v>86972.63453</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>131176.54247</v>
+        <v>125859.59261</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>183370.06004</v>
+        <v>171968.00463</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>270514.08737</v>
+        <v>265838.98881</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>534337.7564899999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>514260.22598</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>455918.368</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>505839.35124</v>
+        <v>380573.63312</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>530578.61771</v>
+        <v>392053.88132</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1276170.89375</v>
+        <v>1017116.03155</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>620542.60636</v>
+        <v>480853.47681</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1582573.24251</v>
+        <v>1285711.71358</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>883215.7527299999</v>
+        <v>665968.14507</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1728883.43361</v>
+        <v>1337187.8725</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2169522.71925</v>
+        <v>1847813.47981</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4961289.89293</v>
+        <v>4618954.647280001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>11287838.69857</v>
+        <v>10635047.41239</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>12505598.56257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>11347351.62378</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>27383749.368</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>126424.70506</v>
+        <v>98328.77021</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>100773.83577</v>
+        <v>73480.07267000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>217110.6647</v>
+        <v>151408.16714</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>201893.56529</v>
+        <v>146957.32982</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>284329.24294</v>
+        <v>156664.13677</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>404576.33426</v>
+        <v>265773.54097</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>592088.1270999999</v>
+        <v>451129.06784</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>817252.558</v>
+        <v>655967.8452399999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>3312550.73892</v>
+        <v>3014781.11743</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>8505417.02252</v>
+        <v>7874492.74284</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>10516063.16335</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>9695601.788179999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>22926662.753</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>379414.64618</v>
+        <v>282244.86291</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>429804.78194</v>
+        <v>318573.80865</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1059060.22905</v>
+        <v>865707.8644099999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>418649.04107</v>
+        <v>333896.14699</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1298243.99957</v>
+        <v>1129047.57681</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>478639.41847</v>
+        <v>400194.6041</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1136795.30651</v>
+        <v>886058.8046600001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1352270.16125</v>
+        <v>1191845.63457</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1648739.15401</v>
+        <v>1604173.52985</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2782421.67605</v>
+        <v>2760554.66955</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1989535.39922</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1651749.8356</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4457086.615</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1364636.22958</v>
+        <v>1293562.0578</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1760077.7009</v>
+        <v>1746826.35387</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1805884.65167</v>
+        <v>1967351.73084</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2736731.6238</v>
+        <v>2604684.95976</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2525596.64691</v>
+        <v>2426726.95684</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4384577.78119</v>
+        <v>4441260.210330001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3733986.43951</v>
+        <v>5291952.92429</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4215534.13538</v>
+        <v>4551656.48292</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>3847698.84275</v>
+        <v>3675859.77083</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>452669.3677</v>
+        <v>1227782.15216</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>6107129.0057</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>8132489.16981</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-17905834.873</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>122541.68423</v>
+        <v>92299.88323000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>123000.16177</v>
+        <v>105935.92268</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>162744.61261</v>
+        <v>141267.51627</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>251833.19446</v>
+        <v>149221.93923</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>235187.7233</v>
+        <v>99374.12995999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>237233.95725</v>
+        <v>169825.93991</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>194352.78218</v>
+        <v>187806.54345</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>572417.7106799999</v>
+        <v>392308.88815</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2569454.03556</v>
+        <v>2338223.22683</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2280740.0837</v>
+        <v>2207153.47702</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3296047.42543</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3142368.03627</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4424390.225</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>34531.93524</v>
+        <v>34109.19546</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>11346.45992</v>
+        <v>11242.11778</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>34230.88661</v>
+        <v>34067.17237</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>7908.600769999999</v>
+        <v>7228.46096</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>16732.99315</v>
+        <v>10788.94477</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>22770.82446</v>
+        <v>21486.74143</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>26048.57994</v>
+        <v>25641.37806</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>25239.32057</v>
+        <v>23762.50112</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>36838.75171</v>
+        <v>36307.09247</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>63586.58876999999</v>
+        <v>55111.39619</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>91277.62067999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>86771.93862999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>183996.344</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>88009.74899000001</v>
+        <v>58190.68777</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>111653.70185</v>
+        <v>94693.80489999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>128513.726</v>
+        <v>107200.3439</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>243924.59369</v>
+        <v>141993.47827</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>218454.73015</v>
+        <v>88585.18519</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>214463.13279</v>
+        <v>148339.19848</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>168304.20224</v>
+        <v>162165.16539</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>547178.39011</v>
+        <v>368546.38703</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2532615.28385</v>
+        <v>2301916.13436</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2217153.49493</v>
+        <v>2152042.08083</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3204769.80475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3055596.09764</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4240393.881</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>95771.35841</v>
+        <v>71659.07768</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>101801.948</v>
+        <v>92147.27999000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>203132.37506</v>
+        <v>162338.15483</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>219293.95925</v>
+        <v>173883.57082</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>288690.10151</v>
+        <v>177116.78682</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>738436.55405</v>
+        <v>649133.86761</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>273373.27631</v>
+        <v>248554.12397</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>453545.18263</v>
+        <v>318489.96863</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1128047.51013</v>
+        <v>1010958.0902</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1685378.46849</v>
+        <v>1412372.97246</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2150593.70774</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1834601.82626</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3733933.248</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>10268.42812</v>
+        <v>6828.8335</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>12918.5102</v>
+        <v>12511.10008</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>11949.02764</v>
+        <v>9768.236550000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>10590.89942</v>
+        <v>10432.13885</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>7759.12808</v>
+        <v>5643.2423</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>16973.69366</v>
+        <v>9488.686159999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4750.1466</v>
+        <v>4742.980280000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>15636.84065</v>
+        <v>13514.50841</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>12272.48485</v>
+        <v>12065.43313</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3479.47456</v>
+        <v>1737.89741</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2206.57317</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>679.6465800000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>576.711</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>31896.35714</v>
+        <v>21999.65755</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>18672.77854</v>
+        <v>17959.91641</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>52882.0612</v>
+        <v>52250.28321</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>20575.42441</v>
+        <v>15421.16646</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>39578.73087000001</v>
+        <v>29143.19834</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>552354.4686899999</v>
+        <v>546554.5338000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>84298.13220000001</v>
+        <v>21653.60957</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>84261.36602000002</v>
+        <v>78519.79087000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>366498.11456</v>
+        <v>305824.27811</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>104852.46306</v>
+        <v>67222.57508</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>150449.44143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>39228.02061</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>169441.552</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>53606.57315</v>
+        <v>42830.58663</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>70210.65925999999</v>
+        <v>61676.2635</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>138301.28622</v>
+        <v>100319.63507</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>188127.63542</v>
+        <v>148030.26551</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>241352.24256</v>
+        <v>142330.34618</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>169108.3917</v>
+        <v>93090.64765</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>184324.99751</v>
+        <v>222157.53412</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>353646.97596</v>
+        <v>226455.66935</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>749276.91072</v>
+        <v>693068.37896</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1577046.53087</v>
+        <v>1343412.49997</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1997937.69314</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1794694.15907</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3563914.985</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1391406.5554</v>
+        <v>1314202.86335</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1781275.91467</v>
+        <v>1760614.99656</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1765496.88922</v>
+        <v>1946281.09228</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2769270.85901</v>
+        <v>2580023.32817</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2472094.2687</v>
+        <v>2348984.29998</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3883375.18439</v>
+        <v>3961952.28263</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3654965.94538</v>
+        <v>5231205.34377</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>4334406.663430001</v>
+        <v>4625475.40244</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>5289105.36818</v>
+        <v>5003124.90746</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1048030.98291</v>
+        <v>2022562.65672</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>7252582.723389999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>9440255.37982</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-17215377.896</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>268647.64933</v>
+        <v>263818.58797</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>290844.39111</v>
+        <v>284515.1547</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>304743.46948</v>
+        <v>290354.7834</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>557556.7732000001</v>
+        <v>540439.53246</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>607560.88301</v>
+        <v>579454.0663499999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>645127.54781</v>
+        <v>617869.84825</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>782337.1653700001</v>
+        <v>776243.2731999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>690544.30089</v>
+        <v>669037.7386899999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1099615.21894</v>
+        <v>1068547.65183</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1475188.87836</v>
+        <v>1429007.63128</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2098521.27921</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2032169.56599</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1388712.93</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1122758.90607</v>
+        <v>1050384.27538</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1490431.52356</v>
+        <v>1476099.84186</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1460753.41974</v>
+        <v>1655926.30888</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2211714.08581</v>
+        <v>2039583.79571</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1864533.38569</v>
+        <v>1769530.23363</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3238247.63658</v>
+        <v>3344082.43438</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2872628.78001</v>
+        <v>4454962.07057</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3643862.36254</v>
+        <v>3956437.66375</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>4189490.14924</v>
+        <v>3934577.25563</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-427157.89545</v>
+        <v>593555.0254400001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>5154061.444180001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>7408085.81383</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-18604090.826</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>105</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>